--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1564,6 +1564,615 @@
       </c>
       <c r="BK5" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5275376</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['6', '18']</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5275377</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45038.70833333334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5275378</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45038.83333333334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -2173,6 +2173,209 @@
       </c>
       <c r="BK8" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5275379</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>1.4</v>
@@ -2376,6 +2376,412 @@
       </c>
       <c r="BK9" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5275380</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45045.625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5275381</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45045.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2782,6 +2782,412 @@
       </c>
       <c r="BK11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5275382</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45046.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5275383</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45046.875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2112,16 +2112,16 @@
         <v>1.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>1.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>1.06</v>
@@ -2924,16 +2924,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3130,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" t="n">
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>2.01</v>
@@ -3188,6 +3188,209 @@
       </c>
       <c r="BK13" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5275384</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45051.85416666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2112,16 +2112,16 @@
         <v>1.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>1.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>1.06</v>
@@ -2924,16 +2924,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3130,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>2.01</v>
@@ -3330,16 +3330,16 @@
         <v>1.3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>1.73</v>
@@ -3391,6 +3391,412 @@
       </c>
       <c r="BK14" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5275385</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45052.70833333334</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5275386</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['6', '9', '34', '69']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3799,6 +3799,209 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5275387</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45053.83333333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>1.06</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -3999,6 +3999,818 @@
         <v>10</v>
       </c>
       <c r="BK17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5275388</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['33', '50', '77']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['30', '74']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5275389</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['19', '78']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['45+1', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5275390</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45059.9375</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['8', '36', '59', '71', '72']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5275391</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45060.79166666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['7', '42', '82', '90+2']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK21" t="n">
         <v>19</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>1.4</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         <v>1.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>1.06</v>
@@ -3745,7 +3745,7 @@
         <v>0.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>1.27</v>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4760,7 +4760,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.71</v>
@@ -4812,6 +4812,615 @@
       </c>
       <c r="BK21" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5275392</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45065.83333333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5275393</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45066.625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['11', '31', '46']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5275394</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45066.75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.32</v>
@@ -5421,6 +5421,209 @@
       </c>
       <c r="BK24" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5275395</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45067.83333333334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['22', '67']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>1.25</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.25</v>
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>1.56</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT21" t="n">
         <v>2</v>
@@ -5624,6 +5624,818 @@
       </c>
       <c r="BK25" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5275396</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Atlético Ottawa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Forge FC</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5275397</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45073.95833333334</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pacific FC</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5275398</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45074.75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>York9 FC</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cavalry FC</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5275399</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Canada Canadian Premier League</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45074.875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Vancouver FC</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>11</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,21 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['7', '45+1', '87']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['71', '76']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -301,9 +316,6 @@
     <t>['6', '18']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['53', '90+3']</t>
+  </si>
+  <si>
+    <t>['3', '24', '66', '68', '80', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK29"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +967,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1033,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1137,7 +1158,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1224,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1519,7 +1540,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1710,7 +1731,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1988,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2283,7 +2304,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2752,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -2856,7 +2877,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2943,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>1.25</v>
@@ -3047,7 +3068,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3137,7 +3158,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3238,7 +3259,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3328,7 +3349,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3519,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3620,7 +3641,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3707,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU16">
         <v>1.27</v>
@@ -3811,7 +3832,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3898,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT17">
         <v>0.75</v>
@@ -4002,7 +4023,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4089,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT18">
         <v>1.25</v>
@@ -4193,7 +4214,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4280,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4384,7 +4405,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4471,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT20">
         <v>1.33</v>
@@ -4575,7 +4596,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4853,7 +4874,7 @@
         <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
         <v>1.25</v>
@@ -4957,7 +4978,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5148,7 +5169,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5238,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU24">
         <v>1.21</v>
@@ -5426,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
         <v>1.33</v>
@@ -5530,7 +5551,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5617,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5721,7 +5742,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5811,7 +5832,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6190,7 +6211,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6245,6 +6266,961 @@
       </c>
       <c r="BK29">
         <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5275400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45077.83333333334</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>2.2</v>
+      </c>
+      <c r="U30">
+        <v>2.15</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>2.8</v>
+      </c>
+      <c r="Y30">
+        <v>2.7</v>
+      </c>
+      <c r="Z30">
+        <v>1.4</v>
+      </c>
+      <c r="AA30">
+        <v>7</v>
+      </c>
+      <c r="AB30">
+        <v>1.08</v>
+      </c>
+      <c r="AC30">
+        <v>1.96</v>
+      </c>
+      <c r="AD30">
+        <v>6.39</v>
+      </c>
+      <c r="AE30">
+        <v>2.25</v>
+      </c>
+      <c r="AF30">
+        <v>1.04</v>
+      </c>
+      <c r="AG30">
+        <v>11</v>
+      </c>
+      <c r="AH30">
+        <v>1.27</v>
+      </c>
+      <c r="AI30">
+        <v>3.4</v>
+      </c>
+      <c r="AJ30">
+        <v>1.88</v>
+      </c>
+      <c r="AK30">
+        <v>1.83</v>
+      </c>
+      <c r="AL30">
+        <v>1.86</v>
+      </c>
+      <c r="AM30">
+        <v>1.83</v>
+      </c>
+      <c r="AN30">
+        <v>1.17</v>
+      </c>
+      <c r="AO30">
+        <v>1.23</v>
+      </c>
+      <c r="AP30">
+        <v>2.15</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>2</v>
+      </c>
+      <c r="AS30">
+        <v>1.2</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
+      </c>
+      <c r="AU30">
+        <v>1.76</v>
+      </c>
+      <c r="AV30">
+        <v>1.46</v>
+      </c>
+      <c r="AW30">
+        <v>3.22</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>1.28</v>
+      </c>
+      <c r="BB30">
+        <v>1.52</v>
+      </c>
+      <c r="BC30">
+        <v>1.98</v>
+      </c>
+      <c r="BD30">
+        <v>2.55</v>
+      </c>
+      <c r="BE30">
+        <v>3.5</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>5</v>
+      </c>
+      <c r="BH30">
+        <v>14</v>
+      </c>
+      <c r="BI30">
+        <v>7</v>
+      </c>
+      <c r="BJ30">
+        <v>19</v>
+      </c>
+      <c r="BK30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5275401</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45079.95833333334</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>4.75</v>
+      </c>
+      <c r="U31">
+        <v>2.1</v>
+      </c>
+      <c r="V31">
+        <v>2.38</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>2.63</v>
+      </c>
+      <c r="Y31">
+        <v>2.75</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>1.08</v>
+      </c>
+      <c r="AC31">
+        <v>3.98</v>
+      </c>
+      <c r="AD31">
+        <v>3.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.82</v>
+      </c>
+      <c r="AF31">
+        <v>1.04</v>
+      </c>
+      <c r="AG31">
+        <v>10.75</v>
+      </c>
+      <c r="AH31">
+        <v>1.28</v>
+      </c>
+      <c r="AI31">
+        <v>3.35</v>
+      </c>
+      <c r="AJ31">
+        <v>1.9</v>
+      </c>
+      <c r="AK31">
+        <v>1.8</v>
+      </c>
+      <c r="AL31">
+        <v>1.91</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>1.95</v>
+      </c>
+      <c r="AO31">
+        <v>1.27</v>
+      </c>
+      <c r="AP31">
+        <v>1.2</v>
+      </c>
+      <c r="AQ31">
+        <v>0.67</v>
+      </c>
+      <c r="AR31">
+        <v>2</v>
+      </c>
+      <c r="AS31">
+        <v>0.5</v>
+      </c>
+      <c r="AT31">
+        <v>2.33</v>
+      </c>
+      <c r="AU31">
+        <v>1.11</v>
+      </c>
+      <c r="AV31">
+        <v>1.68</v>
+      </c>
+      <c r="AW31">
+        <v>2.79</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>9</v>
+      </c>
+      <c r="BG31">
+        <v>9</v>
+      </c>
+      <c r="BH31">
+        <v>2</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>11</v>
+      </c>
+      <c r="BK31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5275402</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45080.70833333334</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>11</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>1.83</v>
+      </c>
+      <c r="V32">
+        <v>3.1</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>2.25</v>
+      </c>
+      <c r="Y32">
+        <v>3.75</v>
+      </c>
+      <c r="Z32">
+        <v>1.25</v>
+      </c>
+      <c r="AA32">
+        <v>8.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.05</v>
+      </c>
+      <c r="AC32">
+        <v>2.3</v>
+      </c>
+      <c r="AD32">
+        <v>2.9</v>
+      </c>
+      <c r="AE32">
+        <v>2.9</v>
+      </c>
+      <c r="AF32">
+        <v>1.05</v>
+      </c>
+      <c r="AG32">
+        <v>11</v>
+      </c>
+      <c r="AH32">
+        <v>1.26</v>
+      </c>
+      <c r="AI32">
+        <v>3.52</v>
+      </c>
+      <c r="AJ32">
+        <v>2.25</v>
+      </c>
+      <c r="AK32">
+        <v>1.57</v>
+      </c>
+      <c r="AL32">
+        <v>2.2</v>
+      </c>
+      <c r="AM32">
+        <v>1.62</v>
+      </c>
+      <c r="AN32">
+        <v>1.55</v>
+      </c>
+      <c r="AO32">
+        <v>1.35</v>
+      </c>
+      <c r="AP32">
+        <v>1.3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.67</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>1.5</v>
+      </c>
+      <c r="AT32">
+        <v>2.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.46</v>
+      </c>
+      <c r="AV32">
+        <v>1.4</v>
+      </c>
+      <c r="AW32">
+        <v>2.86</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>2</v>
+      </c>
+      <c r="BG32">
+        <v>6</v>
+      </c>
+      <c r="BH32">
+        <v>5</v>
+      </c>
+      <c r="BI32">
+        <v>7</v>
+      </c>
+      <c r="BJ32">
+        <v>7</v>
+      </c>
+      <c r="BK32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5275403</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>2.81</v>
+      </c>
+      <c r="U33">
+        <v>1.99</v>
+      </c>
+      <c r="V33">
+        <v>4.04</v>
+      </c>
+      <c r="W33">
+        <v>1.43</v>
+      </c>
+      <c r="X33">
+        <v>2.56</v>
+      </c>
+      <c r="Y33">
+        <v>3.1</v>
+      </c>
+      <c r="Z33">
+        <v>1.32</v>
+      </c>
+      <c r="AA33">
+        <v>8.25</v>
+      </c>
+      <c r="AB33">
+        <v>1.06</v>
+      </c>
+      <c r="AC33">
+        <v>2.05</v>
+      </c>
+      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AE33">
+        <v>3.3</v>
+      </c>
+      <c r="AF33">
+        <v>1.07</v>
+      </c>
+      <c r="AG33">
+        <v>9.25</v>
+      </c>
+      <c r="AH33">
+        <v>1.37</v>
+      </c>
+      <c r="AI33">
+        <v>2.91</v>
+      </c>
+      <c r="AJ33">
+        <v>2.15</v>
+      </c>
+      <c r="AK33">
+        <v>1.61</v>
+      </c>
+      <c r="AL33">
+        <v>1.86</v>
+      </c>
+      <c r="AM33">
+        <v>1.9</v>
+      </c>
+      <c r="AN33">
+        <v>1.3</v>
+      </c>
+      <c r="AO33">
+        <v>1.3</v>
+      </c>
+      <c r="AP33">
+        <v>1.6</v>
+      </c>
+      <c r="AQ33">
+        <v>0.25</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>0.8</v>
+      </c>
+      <c r="AT33">
+        <v>0.83</v>
+      </c>
+      <c r="AU33">
+        <v>1.52</v>
+      </c>
+      <c r="AV33">
+        <v>1.39</v>
+      </c>
+      <c r="AW33">
+        <v>2.91</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>9</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
+        <v>3</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5275404</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>3.75</v>
+      </c>
+      <c r="U34">
+        <v>2.05</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>2.63</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
+      <c r="AA34">
+        <v>7</v>
+      </c>
+      <c r="AB34">
+        <v>1.08</v>
+      </c>
+      <c r="AC34">
+        <v>3.24</v>
+      </c>
+      <c r="AD34">
+        <v>3.32</v>
+      </c>
+      <c r="AE34">
+        <v>2.13</v>
+      </c>
+      <c r="AF34">
+        <v>1.05</v>
+      </c>
+      <c r="AG34">
+        <v>10.5</v>
+      </c>
+      <c r="AH34">
+        <v>1.32</v>
+      </c>
+      <c r="AI34">
+        <v>3.22</v>
+      </c>
+      <c r="AJ34">
+        <v>1.99</v>
+      </c>
+      <c r="AK34">
+        <v>1.8</v>
+      </c>
+      <c r="AL34">
+        <v>1.83</v>
+      </c>
+      <c r="AM34">
+        <v>1.83</v>
+      </c>
+      <c r="AN34">
+        <v>1.44</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>1.38</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>2.25</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>1.16</v>
+      </c>
+      <c r="AV34">
+        <v>1.42</v>
+      </c>
+      <c r="AW34">
+        <v>2.58</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+      <c r="BH34">
+        <v>8</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>13</v>
+      </c>
+      <c r="BK34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,9 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['24', '80']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +973,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1158,7 +1164,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1540,7 +1546,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT5">
         <v>1.25</v>
@@ -1731,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1818,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT6">
         <v>1.25</v>
@@ -2203,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2877,7 +2883,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3068,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3259,7 +3265,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3346,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT14">
         <v>2.5</v>
@@ -3641,7 +3647,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3832,7 +3838,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4023,7 +4029,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4214,7 +4220,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4405,7 +4411,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4495,7 +4501,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4596,7 +4602,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4978,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5169,7 +5175,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5450,7 +5456,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5551,7 +5557,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5742,7 +5748,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6020,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
         <v>0.75</v>
@@ -6315,7 +6321,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6506,7 +6512,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6697,7 +6703,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7079,7 +7085,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7221,6 +7227,197 @@
       </c>
       <c r="BK34">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5275405</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45086.85416666666</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>3.2</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>3.25</v>
+      </c>
+      <c r="W35">
+        <v>1.5</v>
+      </c>
+      <c r="X35">
+        <v>2.5</v>
+      </c>
+      <c r="Y35">
+        <v>3.25</v>
+      </c>
+      <c r="Z35">
+        <v>1.33</v>
+      </c>
+      <c r="AA35">
+        <v>8</v>
+      </c>
+      <c r="AB35">
+        <v>1.06</v>
+      </c>
+      <c r="AC35">
+        <v>2.2</v>
+      </c>
+      <c r="AD35">
+        <v>3.1</v>
+      </c>
+      <c r="AE35">
+        <v>2.8</v>
+      </c>
+      <c r="AF35">
+        <v>1.03</v>
+      </c>
+      <c r="AG35">
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <v>1.33</v>
+      </c>
+      <c r="AI35">
+        <v>2.93</v>
+      </c>
+      <c r="AJ35">
+        <v>2.15</v>
+      </c>
+      <c r="AK35">
+        <v>1.62</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>1.73</v>
+      </c>
+      <c r="AN35">
+        <v>1.36</v>
+      </c>
+      <c r="AO35">
+        <v>1.28</v>
+      </c>
+      <c r="AP35">
+        <v>1.52</v>
+      </c>
+      <c r="AQ35">
+        <v>0.75</v>
+      </c>
+      <c r="AR35">
+        <v>1.33</v>
+      </c>
+      <c r="AS35">
+        <v>1.2</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>1.55</v>
+      </c>
+      <c r="AV35">
+        <v>1.15</v>
+      </c>
+      <c r="AW35">
+        <v>2.7</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>1.3</v>
+      </c>
+      <c r="BB35">
+        <v>1.58</v>
+      </c>
+      <c r="BC35">
+        <v>2</v>
+      </c>
+      <c r="BD35">
+        <v>2.7</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>3</v>
+      </c>
+      <c r="BH35">
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>9</v>
+      </c>
+      <c r="BJ35">
+        <v>7</v>
+      </c>
+      <c r="BK35">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,9 @@
     <t>['24', '80']</t>
   </si>
   <si>
+    <t>['9', '52']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,7 +979,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1164,7 +1170,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1546,7 +1552,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1636,7 +1642,7 @@
         <v>1.2</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1737,7 +1743,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2015,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0.83</v>
@@ -2588,7 +2594,7 @@
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
         <v>1.25</v>
@@ -2883,7 +2889,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2973,7 +2979,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3074,7 +3080,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3265,7 +3271,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3647,7 +3653,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3737,7 +3743,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU16">
         <v>1.27</v>
@@ -3838,7 +3844,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4029,7 +4035,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4116,10 +4122,10 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4220,7 +4226,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4411,7 +4417,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4602,7 +4608,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4880,7 +4886,7 @@
         <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.25</v>
@@ -4984,7 +4990,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5071,7 +5077,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
         <v>2</v>
@@ -5175,7 +5181,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5265,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU24">
         <v>1.21</v>
@@ -5557,7 +5563,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5748,7 +5754,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6220,7 +6226,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6321,7 +6327,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6408,7 +6414,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6512,7 +6518,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6602,7 +6608,7 @@
         <v>0.5</v>
       </c>
       <c r="AT31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU31">
         <v>1.11</v>
@@ -6703,7 +6709,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7085,7 +7091,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7276,7 +7282,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7418,6 +7424,388 @@
       </c>
       <c r="BK35">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5275406</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45087.58333333334</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>3.5</v>
+      </c>
+      <c r="U36">
+        <v>1.91</v>
+      </c>
+      <c r="V36">
+        <v>3.4</v>
+      </c>
+      <c r="W36">
+        <v>1.53</v>
+      </c>
+      <c r="X36">
+        <v>2.38</v>
+      </c>
+      <c r="Y36">
+        <v>3.5</v>
+      </c>
+      <c r="Z36">
+        <v>1.29</v>
+      </c>
+      <c r="AA36">
+        <v>8.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.05</v>
+      </c>
+      <c r="AC36">
+        <v>2.63</v>
+      </c>
+      <c r="AD36">
+        <v>3.05</v>
+      </c>
+      <c r="AE36">
+        <v>2.31</v>
+      </c>
+      <c r="AF36">
+        <v>1.09</v>
+      </c>
+      <c r="AG36">
+        <v>6.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.43</v>
+      </c>
+      <c r="AI36">
+        <v>2.6</v>
+      </c>
+      <c r="AJ36">
+        <v>2.2</v>
+      </c>
+      <c r="AK36">
+        <v>1.6</v>
+      </c>
+      <c r="AL36">
+        <v>2.2</v>
+      </c>
+      <c r="AM36">
+        <v>1.62</v>
+      </c>
+      <c r="AN36">
+        <v>1.46</v>
+      </c>
+      <c r="AO36">
+        <v>1.36</v>
+      </c>
+      <c r="AP36">
+        <v>1.43</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.25</v>
+      </c>
+      <c r="AS36">
+        <v>1.33</v>
+      </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>1.35</v>
+      </c>
+      <c r="AV36">
+        <v>1.67</v>
+      </c>
+      <c r="AW36">
+        <v>3.02</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>8</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>5</v>
+      </c>
+      <c r="BI36">
+        <v>5</v>
+      </c>
+      <c r="BJ36">
+        <v>13</v>
+      </c>
+      <c r="BK36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5275407</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>3.6</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>3.25</v>
+      </c>
+      <c r="Z37">
+        <v>1.33</v>
+      </c>
+      <c r="AA37">
+        <v>8</v>
+      </c>
+      <c r="AB37">
+        <v>1.06</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <v>3.25</v>
+      </c>
+      <c r="AE37">
+        <v>3.1</v>
+      </c>
+      <c r="AF37">
+        <v>1.08</v>
+      </c>
+      <c r="AG37">
+        <v>7.5</v>
+      </c>
+      <c r="AH37">
+        <v>1.37</v>
+      </c>
+      <c r="AI37">
+        <v>2.8</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>1.67</v>
+      </c>
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <v>1.73</v>
+      </c>
+      <c r="AN37">
+        <v>1.37</v>
+      </c>
+      <c r="AO37">
+        <v>1.34</v>
+      </c>
+      <c r="AP37">
+        <v>1.55</v>
+      </c>
+      <c r="AQ37">
+        <v>1.2</v>
+      </c>
+      <c r="AR37">
+        <v>2.33</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>2.5</v>
+      </c>
+      <c r="AU37">
+        <v>1.83</v>
+      </c>
+      <c r="AV37">
+        <v>1.69</v>
+      </c>
+      <c r="AW37">
+        <v>3.52</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>2</v>
+      </c>
+      <c r="BG37">
+        <v>5</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>5</v>
+      </c>
+      <c r="BJ37">
+        <v>7</v>
+      </c>
+      <c r="BK37">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['9', '52']</t>
   </si>
   <si>
+    <t>['10', '21', '28']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -374,6 +377,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +985,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1170,7 +1176,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1451,7 +1457,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1552,7 +1558,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1743,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1833,7 +1839,7 @@
         <v>1.2</v>
       </c>
       <c r="AT6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2597,7 +2603,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2889,7 +2895,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2976,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3080,7 +3086,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3271,7 +3277,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3653,7 +3659,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3844,7 +3850,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4035,7 +4041,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4226,7 +4232,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4313,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT19">
         <v>0.83</v>
@@ -4417,7 +4423,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4608,7 +4614,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4889,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -4990,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5181,7 +5187,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5459,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5563,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5754,7 +5760,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6327,7 +6333,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6518,7 +6524,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6709,7 +6715,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6796,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT32">
         <v>2.5</v>
@@ -7091,7 +7097,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7282,7 +7288,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7664,7 +7670,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7805,6 +7811,197 @@
         <v>7</v>
       </c>
       <c r="BK37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5275408</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45088.75</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>2.6</v>
+      </c>
+      <c r="U38">
+        <v>2.05</v>
+      </c>
+      <c r="V38">
+        <v>4.33</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>2.63</v>
+      </c>
+      <c r="Y38">
+        <v>3.25</v>
+      </c>
+      <c r="Z38">
+        <v>1.33</v>
+      </c>
+      <c r="AA38">
+        <v>7.5</v>
+      </c>
+      <c r="AB38">
+        <v>1.07</v>
+      </c>
+      <c r="AC38">
+        <v>1.99</v>
+      </c>
+      <c r="AD38">
+        <v>3.35</v>
+      </c>
+      <c r="AE38">
+        <v>3.75</v>
+      </c>
+      <c r="AF38">
+        <v>1.03</v>
+      </c>
+      <c r="AG38">
+        <v>8.4</v>
+      </c>
+      <c r="AH38">
+        <v>1.31</v>
+      </c>
+      <c r="AI38">
+        <v>3.04</v>
+      </c>
+      <c r="AJ38">
+        <v>1.83</v>
+      </c>
+      <c r="AK38">
+        <v>1.8</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>1.73</v>
+      </c>
+      <c r="AN38">
+        <v>1.12</v>
+      </c>
+      <c r="AO38">
+        <v>1.22</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>1.25</v>
+      </c>
+      <c r="AS38">
+        <v>1.8</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1.3</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>2.3</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>5</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+      <c r="BH38">
+        <v>8</v>
+      </c>
+      <c r="BI38">
+        <v>6</v>
+      </c>
+      <c r="BJ38">
+        <v>13</v>
+      </c>
+      <c r="BK38">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>['10', '21', '28']</t>
+  </si>
+  <si>
+    <t>['39', '63']</t>
+  </si>
+  <si>
+    <t>['6', '62', '84']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['16']</t>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +994,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1072,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT2">
         <v>0.83</v>
@@ -1176,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1266,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1454,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1558,7 +1567,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1749,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1839,7 +1848,7 @@
         <v>1.2</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2218,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2409,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2600,10 +2609,10 @@
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2791,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -2895,7 +2904,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3086,7 +3095,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3173,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3277,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3367,7 +3376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3555,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT15">
         <v>0.83</v>
@@ -3659,7 +3668,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3746,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT16">
         <v>2.5</v>
@@ -3850,7 +3859,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3940,7 +3949,7 @@
         <v>0.5</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4041,7 +4050,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4232,7 +4241,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4423,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4614,7 +4623,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4701,10 +4710,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -4895,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -4996,7 +5005,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5083,10 +5092,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5187,7 +5196,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5274,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT24">
         <v>2.5</v>
@@ -5569,7 +5578,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5656,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5760,7 +5769,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5847,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT27">
         <v>0.83</v>
@@ -6041,7 +6050,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6333,7 +6342,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6423,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6524,7 +6533,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6715,7 +6724,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6805,7 +6814,7 @@
         <v>1.8</v>
       </c>
       <c r="AT32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -6993,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT33">
         <v>0.83</v>
@@ -7097,7 +7106,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7184,10 +7193,10 @@
         <v>2.25</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7288,7 +7297,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7566,7 +7575,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -7670,7 +7679,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7861,7 +7870,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -7951,7 +7960,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU38">
         <v>1.3</v>
@@ -8003,6 +8012,770 @@
       </c>
       <c r="BK38">
         <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5275409</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45093.875</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>3.75</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>2.5</v>
+      </c>
+      <c r="Y39">
+        <v>3.4</v>
+      </c>
+      <c r="Z39">
+        <v>1.3</v>
+      </c>
+      <c r="AA39">
+        <v>8</v>
+      </c>
+      <c r="AB39">
+        <v>1.06</v>
+      </c>
+      <c r="AC39">
+        <v>2.2</v>
+      </c>
+      <c r="AD39">
+        <v>3</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>1.04</v>
+      </c>
+      <c r="AG39">
+        <v>7</v>
+      </c>
+      <c r="AH39">
+        <v>1.38</v>
+      </c>
+      <c r="AI39">
+        <v>2.71</v>
+      </c>
+      <c r="AJ39">
+        <v>2.2</v>
+      </c>
+      <c r="AK39">
+        <v>1.6</v>
+      </c>
+      <c r="AL39">
+        <v>2.1</v>
+      </c>
+      <c r="AM39">
+        <v>1.67</v>
+      </c>
+      <c r="AN39">
+        <v>1.33</v>
+      </c>
+      <c r="AO39">
+        <v>1.34</v>
+      </c>
+      <c r="AP39">
+        <v>1.6</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>2.5</v>
+      </c>
+      <c r="AS39">
+        <v>1.4</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>1.27</v>
+      </c>
+      <c r="AV39">
+        <v>1.47</v>
+      </c>
+      <c r="AW39">
+        <v>2.74</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>4</v>
+      </c>
+      <c r="BG39">
+        <v>7</v>
+      </c>
+      <c r="BH39">
+        <v>2</v>
+      </c>
+      <c r="BI39">
+        <v>11</v>
+      </c>
+      <c r="BJ39">
+        <v>6</v>
+      </c>
+      <c r="BK39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5275410</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45094.625</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>3.4</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>3.2</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>2.63</v>
+      </c>
+      <c r="Y40">
+        <v>3.25</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
+      <c r="AA40">
+        <v>7.5</v>
+      </c>
+      <c r="AB40">
+        <v>1.07</v>
+      </c>
+      <c r="AC40">
+        <v>2.55</v>
+      </c>
+      <c r="AD40">
+        <v>3.1</v>
+      </c>
+      <c r="AE40">
+        <v>2.4</v>
+      </c>
+      <c r="AF40">
+        <v>1.04</v>
+      </c>
+      <c r="AG40">
+        <v>7.9</v>
+      </c>
+      <c r="AH40">
+        <v>1.34</v>
+      </c>
+      <c r="AI40">
+        <v>2.88</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.65</v>
+      </c>
+      <c r="AL40">
+        <v>2</v>
+      </c>
+      <c r="AM40">
+        <v>1.73</v>
+      </c>
+      <c r="AN40">
+        <v>1.52</v>
+      </c>
+      <c r="AO40">
+        <v>1.32</v>
+      </c>
+      <c r="AP40">
+        <v>1.41</v>
+      </c>
+      <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>0.75</v>
+      </c>
+      <c r="AS40">
+        <v>1.75</v>
+      </c>
+      <c r="AT40">
+        <v>0.6</v>
+      </c>
+      <c r="AU40">
+        <v>1.5</v>
+      </c>
+      <c r="AV40">
+        <v>1.29</v>
+      </c>
+      <c r="AW40">
+        <v>2.79</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>5</v>
+      </c>
+      <c r="BG40">
+        <v>8</v>
+      </c>
+      <c r="BH40">
+        <v>3</v>
+      </c>
+      <c r="BI40">
+        <v>5</v>
+      </c>
+      <c r="BJ40">
+        <v>8</v>
+      </c>
+      <c r="BK40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5275411</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45094.625</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>9</v>
+      </c>
+      <c r="T41">
+        <v>2.2</v>
+      </c>
+      <c r="U41">
+        <v>2.1</v>
+      </c>
+      <c r="V41">
+        <v>5.5</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>2.63</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>1.36</v>
+      </c>
+      <c r="AA41">
+        <v>7</v>
+      </c>
+      <c r="AB41">
+        <v>1.08</v>
+      </c>
+      <c r="AC41">
+        <v>1.65</v>
+      </c>
+      <c r="AD41">
+        <v>3.4</v>
+      </c>
+      <c r="AE41">
+        <v>4.6</v>
+      </c>
+      <c r="AF41">
+        <v>1.02</v>
+      </c>
+      <c r="AG41">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH41">
+        <v>1.27</v>
+      </c>
+      <c r="AI41">
+        <v>3.28</v>
+      </c>
+      <c r="AJ41">
+        <v>1.8</v>
+      </c>
+      <c r="AK41">
+        <v>1.91</v>
+      </c>
+      <c r="AL41">
+        <v>2.1</v>
+      </c>
+      <c r="AM41">
+        <v>1.67</v>
+      </c>
+      <c r="AN41">
+        <v>1.14</v>
+      </c>
+      <c r="AO41">
+        <v>1.27</v>
+      </c>
+      <c r="AP41">
+        <v>2.2</v>
+      </c>
+      <c r="AQ41">
+        <v>0.8</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1.17</v>
+      </c>
+      <c r="AT41">
+        <v>0.83</v>
+      </c>
+      <c r="AU41">
+        <v>1.55</v>
+      </c>
+      <c r="AV41">
+        <v>1.05</v>
+      </c>
+      <c r="AW41">
+        <v>2.6</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>1.4</v>
+      </c>
+      <c r="BB41">
+        <v>1.73</v>
+      </c>
+      <c r="BC41">
+        <v>2.28</v>
+      </c>
+      <c r="BD41">
+        <v>3.1</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>2</v>
+      </c>
+      <c r="BH41">
+        <v>7</v>
+      </c>
+      <c r="BI41">
+        <v>5</v>
+      </c>
+      <c r="BJ41">
+        <v>13</v>
+      </c>
+      <c r="BK41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5275412</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45095.70833333334</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>2.2</v>
+      </c>
+      <c r="U42">
+        <v>2.2</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>2.75</v>
+      </c>
+      <c r="Y42">
+        <v>2.75</v>
+      </c>
+      <c r="Z42">
+        <v>1.4</v>
+      </c>
+      <c r="AA42">
+        <v>6.5</v>
+      </c>
+      <c r="AB42">
+        <v>1.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.68</v>
+      </c>
+      <c r="AD42">
+        <v>3.65</v>
+      </c>
+      <c r="AE42">
+        <v>5</v>
+      </c>
+      <c r="AF42">
+        <v>1.01</v>
+      </c>
+      <c r="AG42">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH42">
+        <v>1.26</v>
+      </c>
+      <c r="AI42">
+        <v>3.34</v>
+      </c>
+      <c r="AJ42">
+        <v>1.9</v>
+      </c>
+      <c r="AK42">
+        <v>1.9</v>
+      </c>
+      <c r="AL42">
+        <v>2</v>
+      </c>
+      <c r="AM42">
+        <v>1.73</v>
+      </c>
+      <c r="AN42">
+        <v>1.16</v>
+      </c>
+      <c r="AO42">
+        <v>1.26</v>
+      </c>
+      <c r="AP42">
+        <v>2.15</v>
+      </c>
+      <c r="AQ42">
+        <v>1.6</v>
+      </c>
+      <c r="AR42">
+        <v>2</v>
+      </c>
+      <c r="AS42">
+        <v>1.83</v>
+      </c>
+      <c r="AT42">
+        <v>1.67</v>
+      </c>
+      <c r="AU42">
+        <v>1.6</v>
+      </c>
+      <c r="AV42">
+        <v>1.24</v>
+      </c>
+      <c r="AW42">
+        <v>2.84</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>8</v>
+      </c>
+      <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>6</v>
+      </c>
+      <c r="BI42">
+        <v>9</v>
+      </c>
+      <c r="BJ42">
+        <v>14</v>
+      </c>
+      <c r="BK42">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,15 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['35', '39']</t>
+  </si>
+  <si>
+    <t>['14', '56']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -389,6 +398,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['35', '86']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1006,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1084,7 +1096,7 @@
         <v>1.17</v>
       </c>
       <c r="AT2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1185,7 +1197,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1463,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.83</v>
@@ -1567,7 +1579,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1654,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1758,7 +1770,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1845,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT6">
         <v>0.83</v>
@@ -2039,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2418,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0.6</v>
@@ -2904,7 +2916,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2994,7 +3006,7 @@
         <v>1.8</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3095,7 +3107,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3182,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3286,7 +3298,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3373,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3567,7 +3579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3668,7 +3680,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3859,7 +3871,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3946,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0.6</v>
@@ -4050,7 +4062,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4140,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4241,7 +4253,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4331,7 +4343,7 @@
         <v>1.8</v>
       </c>
       <c r="AT19">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4432,7 +4444,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4519,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4623,7 +4635,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4710,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.67</v>
@@ -5005,7 +5017,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5196,7 +5208,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5578,7 +5590,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5668,7 +5680,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5769,7 +5781,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5856,10 +5868,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6047,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT28">
         <v>0.6</v>
@@ -6238,10 +6250,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6342,7 +6354,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6533,7 +6545,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6620,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>2.5</v>
@@ -6724,7 +6736,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6814,7 +6826,7 @@
         <v>1.8</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7005,7 +7017,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7106,7 +7118,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7297,7 +7309,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7384,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7578,7 +7590,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7679,7 +7691,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7870,7 +7882,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8151,7 +8163,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8252,7 +8264,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8721,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>1.67</v>
@@ -8760,22 +8772,595 @@
         <v>0</v>
       </c>
       <c r="BF42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG42">
         <v>4</v>
       </c>
       <c r="BH42">
+        <v>2</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>9</v>
+      </c>
+      <c r="BK42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5275413</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45097.95833333334</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>8</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>5.5</v>
+      </c>
+      <c r="U43">
+        <v>2.25</v>
+      </c>
+      <c r="V43">
+        <v>2.05</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>2.75</v>
+      </c>
+      <c r="Y43">
+        <v>2.75</v>
+      </c>
+      <c r="Z43">
+        <v>1.4</v>
+      </c>
+      <c r="AA43">
+        <v>6.5</v>
+      </c>
+      <c r="AB43">
+        <v>1.1</v>
+      </c>
+      <c r="AC43">
+        <v>4.76</v>
+      </c>
+      <c r="AD43">
+        <v>3.72</v>
+      </c>
+      <c r="AE43">
+        <v>1.63</v>
+      </c>
+      <c r="AF43">
+        <v>1.03</v>
+      </c>
+      <c r="AG43">
+        <v>10.5</v>
+      </c>
+      <c r="AH43">
+        <v>1.27</v>
+      </c>
+      <c r="AI43">
+        <v>3.55</v>
+      </c>
+      <c r="AJ43">
+        <v>1.87</v>
+      </c>
+      <c r="AK43">
+        <v>1.9</v>
+      </c>
+      <c r="AL43">
+        <v>2.1</v>
+      </c>
+      <c r="AM43">
+        <v>1.67</v>
+      </c>
+      <c r="AN43">
+        <v>2.35</v>
+      </c>
+      <c r="AO43">
+        <v>1.2</v>
+      </c>
+      <c r="AP43">
+        <v>1.11</v>
+      </c>
+      <c r="AQ43">
+        <v>0.5</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>1.67</v>
+      </c>
+      <c r="AU43">
+        <v>1.22</v>
+      </c>
+      <c r="AV43">
+        <v>1.59</v>
+      </c>
+      <c r="AW43">
+        <v>2.81</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>1.35</v>
+      </c>
+      <c r="BB43">
+        <v>1.64</v>
+      </c>
+      <c r="BC43">
+        <v>2.1</v>
+      </c>
+      <c r="BD43">
+        <v>2.88</v>
+      </c>
+      <c r="BE43">
+        <v>4</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>9</v>
+      </c>
+      <c r="BJ43">
+        <v>9</v>
+      </c>
+      <c r="BK43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5275414</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45098.83333333334</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>2.05</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>2.63</v>
+      </c>
+      <c r="Y44">
+        <v>3.25</v>
+      </c>
+      <c r="Z44">
+        <v>1.33</v>
+      </c>
+      <c r="AA44">
+        <v>7.5</v>
+      </c>
+      <c r="AB44">
+        <v>1.07</v>
+      </c>
+      <c r="AC44">
+        <v>2.1</v>
+      </c>
+      <c r="AD44">
+        <v>3.1</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <v>1.03</v>
+      </c>
+      <c r="AG44">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH44">
+        <v>1.32</v>
+      </c>
+      <c r="AI44">
+        <v>2.98</v>
+      </c>
+      <c r="AJ44">
+        <v>2.1</v>
+      </c>
+      <c r="AK44">
+        <v>1.67</v>
+      </c>
+      <c r="AL44">
+        <v>1.91</v>
+      </c>
+      <c r="AM44">
+        <v>1.8</v>
+      </c>
+      <c r="AN44">
+        <v>1.36</v>
+      </c>
+      <c r="AO44">
+        <v>1.29</v>
+      </c>
+      <c r="AP44">
+        <v>1.53</v>
+      </c>
+      <c r="AQ44">
+        <v>1.2</v>
+      </c>
+      <c r="AR44">
+        <v>0.83</v>
+      </c>
+      <c r="AS44">
+        <v>1.17</v>
+      </c>
+      <c r="AT44">
+        <v>0.86</v>
+      </c>
+      <c r="AU44">
+        <v>1.51</v>
+      </c>
+      <c r="AV44">
+        <v>1.4</v>
+      </c>
+      <c r="AW44">
+        <v>2.91</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>1.95</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>3</v>
+      </c>
+      <c r="BG44">
+        <v>9</v>
+      </c>
+      <c r="BH44">
+        <v>9</v>
+      </c>
+      <c r="BI44">
+        <v>2</v>
+      </c>
+      <c r="BJ44">
+        <v>12</v>
+      </c>
+      <c r="BK44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5275415</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45098.95833333334</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>104</v>
+      </c>
+      <c r="P45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45">
         <v>6</v>
       </c>
-      <c r="BI42">
-        <v>9</v>
-      </c>
-      <c r="BJ42">
-        <v>14</v>
-      </c>
-      <c r="BK42">
-        <v>13</v>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>2.1</v>
+      </c>
+      <c r="V45">
+        <v>5.5</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>2.63</v>
+      </c>
+      <c r="Y45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>1.36</v>
+      </c>
+      <c r="AA45">
+        <v>7</v>
+      </c>
+      <c r="AB45">
+        <v>1.08</v>
+      </c>
+      <c r="AC45">
+        <v>1.58</v>
+      </c>
+      <c r="AD45">
+        <v>3.45</v>
+      </c>
+      <c r="AE45">
+        <v>4.4</v>
+      </c>
+      <c r="AF45">
+        <v>1.04</v>
+      </c>
+      <c r="AG45">
+        <v>7.7</v>
+      </c>
+      <c r="AH45">
+        <v>1.31</v>
+      </c>
+      <c r="AI45">
+        <v>3.04</v>
+      </c>
+      <c r="AJ45">
+        <v>2.05</v>
+      </c>
+      <c r="AK45">
+        <v>1.67</v>
+      </c>
+      <c r="AL45">
+        <v>2.2</v>
+      </c>
+      <c r="AM45">
+        <v>1.62</v>
+      </c>
+      <c r="AN45">
+        <v>1.12</v>
+      </c>
+      <c r="AO45">
+        <v>1.22</v>
+      </c>
+      <c r="AP45">
+        <v>1.95</v>
+      </c>
+      <c r="AQ45">
+        <v>1.83</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>2</v>
+      </c>
+      <c r="AT45">
+        <v>0.83</v>
+      </c>
+      <c r="AU45">
+        <v>1.54</v>
+      </c>
+      <c r="AV45">
+        <v>1.45</v>
+      </c>
+      <c r="AW45">
+        <v>2.99</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>4</v>
+      </c>
+      <c r="BG45">
+        <v>2</v>
+      </c>
+      <c r="BH45">
+        <v>3</v>
+      </c>
+      <c r="BI45">
+        <v>6</v>
+      </c>
+      <c r="BJ45">
+        <v>7</v>
+      </c>
+      <c r="BK45">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['51', '83']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['4', '11', '32', '81']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -401,6 +410,12 @@
   </si>
   <si>
     <t>['35', '86']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['1', '64', '72']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1006,7 +1021,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1197,7 +1212,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1284,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT3">
         <v>0.6</v>
@@ -1478,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1579,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1770,7 +1785,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1860,7 +1875,7 @@
         <v>1.17</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2048,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT7">
         <v>0.86</v>
@@ -2239,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2624,7 +2639,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2815,7 +2830,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -2916,7 +2931,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3003,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -3107,7 +3122,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3298,7 +3313,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3576,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
         <v>0.86</v>
@@ -3680,7 +3695,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3871,7 +3886,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4062,7 +4077,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4149,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT18">
         <v>0.83</v>
@@ -4253,7 +4268,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4340,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>0.86</v>
@@ -4444,7 +4459,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4534,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4635,7 +4650,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4725,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -4913,10 +4928,10 @@
         <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5017,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5107,7 +5122,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5208,7 +5223,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5295,7 +5310,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>2.5</v>
@@ -5486,10 +5501,10 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5590,7 +5605,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5781,7 +5796,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6354,7 +6369,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6441,10 +6456,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6545,7 +6560,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6736,7 +6751,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6823,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>1.67</v>
@@ -7118,7 +7133,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7205,10 +7220,10 @@
         <v>2.25</v>
       </c>
       <c r="AS34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7309,7 +7324,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7399,7 +7414,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7691,7 +7706,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7778,7 +7793,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
         <v>2.5</v>
@@ -7882,7 +7897,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -7969,10 +7984,10 @@
         <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU38">
         <v>1.3</v>
@@ -8160,7 +8175,7 @@
         <v>2.5</v>
       </c>
       <c r="AS39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
         <v>1.67</v>
@@ -8264,7 +8279,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8545,7 +8560,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU41">
         <v>1.55</v>
@@ -8736,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU42">
         <v>1.6</v>
@@ -9028,7 +9043,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9361,6 +9376,579 @@
       </c>
       <c r="BK45">
         <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5275416</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45101.75</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>2.3</v>
+      </c>
+      <c r="U46">
+        <v>2.1</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>2.63</v>
+      </c>
+      <c r="Y46">
+        <v>2.75</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>7</v>
+      </c>
+      <c r="AB46">
+        <v>1.08</v>
+      </c>
+      <c r="AC46">
+        <v>1.6</v>
+      </c>
+      <c r="AD46">
+        <v>3.5</v>
+      </c>
+      <c r="AE46">
+        <v>5</v>
+      </c>
+      <c r="AF46">
+        <v>1.02</v>
+      </c>
+      <c r="AG46">
+        <v>8.6</v>
+      </c>
+      <c r="AH46">
+        <v>1.28</v>
+      </c>
+      <c r="AI46">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.83</v>
+      </c>
+      <c r="AK46">
+        <v>1.87</v>
+      </c>
+      <c r="AL46">
+        <v>1.91</v>
+      </c>
+      <c r="AM46">
+        <v>1.8</v>
+      </c>
+      <c r="AN46">
+        <v>1.17</v>
+      </c>
+      <c r="AO46">
+        <v>1.31</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.8</v>
+      </c>
+      <c r="AR46">
+        <v>1.67</v>
+      </c>
+      <c r="AS46">
+        <v>2</v>
+      </c>
+      <c r="AT46">
+        <v>1.43</v>
+      </c>
+      <c r="AU46">
+        <v>1.35</v>
+      </c>
+      <c r="AV46">
+        <v>1.23</v>
+      </c>
+      <c r="AW46">
+        <v>2.58</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>1.93</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>6</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>3</v>
+      </c>
+      <c r="BI46">
+        <v>5</v>
+      </c>
+      <c r="BJ46">
+        <v>9</v>
+      </c>
+      <c r="BK46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5275417</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>2.2</v>
+      </c>
+      <c r="U47">
+        <v>2.05</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>1.5</v>
+      </c>
+      <c r="X47">
+        <v>2.5</v>
+      </c>
+      <c r="Y47">
+        <v>3.25</v>
+      </c>
+      <c r="Z47">
+        <v>1.33</v>
+      </c>
+      <c r="AA47">
+        <v>7.5</v>
+      </c>
+      <c r="AB47">
+        <v>1.07</v>
+      </c>
+      <c r="AC47">
+        <v>1.63</v>
+      </c>
+      <c r="AD47">
+        <v>3.6</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <v>1.04</v>
+      </c>
+      <c r="AG47">
+        <v>7.8</v>
+      </c>
+      <c r="AH47">
+        <v>1.33</v>
+      </c>
+      <c r="AI47">
+        <v>2.93</v>
+      </c>
+      <c r="AJ47">
+        <v>2.03</v>
+      </c>
+      <c r="AK47">
+        <v>1.7</v>
+      </c>
+      <c r="AL47">
+        <v>2.38</v>
+      </c>
+      <c r="AM47">
+        <v>1.53</v>
+      </c>
+      <c r="AN47">
+        <v>1.1</v>
+      </c>
+      <c r="AO47">
+        <v>1.22</v>
+      </c>
+      <c r="AP47">
+        <v>2.1</v>
+      </c>
+      <c r="AQ47">
+        <v>1.4</v>
+      </c>
+      <c r="AR47">
+        <v>0.83</v>
+      </c>
+      <c r="AS47">
+        <v>1.67</v>
+      </c>
+      <c r="AT47">
+        <v>0.71</v>
+      </c>
+      <c r="AU47">
+        <v>1.21</v>
+      </c>
+      <c r="AV47">
+        <v>1</v>
+      </c>
+      <c r="AW47">
+        <v>2.21</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>6</v>
+      </c>
+      <c r="BG47">
+        <v>2</v>
+      </c>
+      <c r="BH47">
+        <v>6</v>
+      </c>
+      <c r="BI47">
+        <v>3</v>
+      </c>
+      <c r="BJ47">
+        <v>12</v>
+      </c>
+      <c r="BK47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5275418</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45102.79166666666</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>12</v>
+      </c>
+      <c r="T48">
+        <v>2.6</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>4.5</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>2.5</v>
+      </c>
+      <c r="Y48">
+        <v>3.4</v>
+      </c>
+      <c r="Z48">
+        <v>1.3</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>1.06</v>
+      </c>
+      <c r="AC48">
+        <v>1.95</v>
+      </c>
+      <c r="AD48">
+        <v>3.25</v>
+      </c>
+      <c r="AE48">
+        <v>3.65</v>
+      </c>
+      <c r="AF48">
+        <v>1.05</v>
+      </c>
+      <c r="AG48">
+        <v>7.2</v>
+      </c>
+      <c r="AH48">
+        <v>1.36</v>
+      </c>
+      <c r="AI48">
+        <v>2.78</v>
+      </c>
+      <c r="AJ48">
+        <v>2.14</v>
+      </c>
+      <c r="AK48">
+        <v>1.63</v>
+      </c>
+      <c r="AL48">
+        <v>2.2</v>
+      </c>
+      <c r="AM48">
+        <v>1.62</v>
+      </c>
+      <c r="AN48">
+        <v>1.26</v>
+      </c>
+      <c r="AO48">
+        <v>1.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.73</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1.29</v>
+      </c>
+      <c r="AT48">
+        <v>0.8</v>
+      </c>
+      <c r="AU48">
+        <v>1.71</v>
+      </c>
+      <c r="AV48">
+        <v>1.27</v>
+      </c>
+      <c r="AW48">
+        <v>2.98</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>1.46</v>
+      </c>
+      <c r="BC48">
+        <v>1.83</v>
+      </c>
+      <c r="BD48">
+        <v>2.35</v>
+      </c>
+      <c r="BE48">
+        <v>3.25</v>
+      </c>
+      <c r="BF48">
+        <v>9</v>
+      </c>
+      <c r="BG48">
+        <v>4</v>
+      </c>
+      <c r="BH48">
+        <v>5</v>
+      </c>
+      <c r="BI48">
+        <v>2</v>
+      </c>
+      <c r="BJ48">
+        <v>14</v>
+      </c>
+      <c r="BK48">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,15 @@
     <t>['4', '11', '32', '81']</t>
   </si>
   <si>
+    <t>['25', '90+10']</t>
+  </si>
+  <si>
+    <t>['45+5', '49']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
   </si>
   <si>
     <t>['1', '64', '72']</t>
+  </si>
+  <si>
+    <t>['19', '53']</t>
+  </si>
+  <si>
+    <t>['6', '90']</t>
+  </si>
+  <si>
+    <t>['4', '79']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1039,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1212,7 +1230,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1302,7 +1320,7 @@
         <v>1.29</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1490,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT4">
         <v>0.71</v>
@@ -1594,7 +1612,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1785,7 +1803,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2254,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2445,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2636,7 +2654,7 @@
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.71</v>
@@ -2830,7 +2848,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -2931,7 +2949,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3122,7 +3140,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3209,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3313,7 +3331,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3403,7 +3421,7 @@
         <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3591,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT15">
         <v>0.86</v>
@@ -3695,7 +3713,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3886,7 +3904,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3973,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4077,7 +4095,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4268,7 +4286,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4459,7 +4477,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4546,10 +4564,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4650,7 +4668,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4737,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5032,7 +5050,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5119,10 +5137,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5223,7 +5241,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5310,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
         <v>2.5</v>
@@ -5504,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5605,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5695,7 +5713,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5796,7 +5814,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5883,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT27">
         <v>0.86</v>
@@ -6077,7 +6095,7 @@
         <v>1.17</v>
       </c>
       <c r="AT28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6265,7 +6283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT29">
         <v>0.83</v>
@@ -6369,7 +6387,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6459,7 +6477,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6560,7 +6578,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6647,7 +6665,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT31">
         <v>2.5</v>
@@ -6751,7 +6769,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6841,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7133,7 +7151,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7220,10 +7238,10 @@
         <v>2.25</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7324,7 +7342,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7414,7 +7432,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7602,7 +7620,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>0.83</v>
@@ -7706,7 +7724,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7897,7 +7915,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8175,10 +8193,10 @@
         <v>2.5</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8279,7 +8297,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8366,10 +8384,10 @@
         <v>0.75</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.5</v>
@@ -8748,10 +8766,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU42">
         <v>1.6</v>
@@ -8939,10 +8957,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9043,7 +9061,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9321,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT45">
         <v>0.83</v>
@@ -9425,7 +9443,7 @@
         <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9515,7 +9533,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU46">
         <v>1.35</v>
@@ -9703,7 +9721,7 @@
         <v>0.83</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT47">
         <v>0.71</v>
@@ -9807,7 +9825,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -9897,7 +9915,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -9949,6 +9967,770 @@
       </c>
       <c r="BK48">
         <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5275419</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45107.79166666666</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>3.2</v>
+      </c>
+      <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
+        <v>3.5</v>
+      </c>
+      <c r="W49">
+        <v>1.5</v>
+      </c>
+      <c r="X49">
+        <v>2.5</v>
+      </c>
+      <c r="Y49">
+        <v>3.4</v>
+      </c>
+      <c r="Z49">
+        <v>1.3</v>
+      </c>
+      <c r="AA49">
+        <v>8</v>
+      </c>
+      <c r="AB49">
+        <v>1.06</v>
+      </c>
+      <c r="AC49">
+        <v>2.7</v>
+      </c>
+      <c r="AD49">
+        <v>3.1</v>
+      </c>
+      <c r="AE49">
+        <v>2.23</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1.96</v>
+      </c>
+      <c r="AK49">
+        <v>1.84</v>
+      </c>
+      <c r="AL49">
+        <v>2.1</v>
+      </c>
+      <c r="AM49">
+        <v>1.67</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>1.75</v>
+      </c>
+      <c r="AR49">
+        <v>1.67</v>
+      </c>
+      <c r="AS49">
+        <v>2</v>
+      </c>
+      <c r="AT49">
+        <v>1.43</v>
+      </c>
+      <c r="AU49">
+        <v>1.41</v>
+      </c>
+      <c r="AV49">
+        <v>1.62</v>
+      </c>
+      <c r="AW49">
+        <v>3.03</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>3</v>
+      </c>
+      <c r="BG49">
+        <v>6</v>
+      </c>
+      <c r="BH49">
+        <v>3</v>
+      </c>
+      <c r="BI49">
+        <v>7</v>
+      </c>
+      <c r="BJ49">
+        <v>6</v>
+      </c>
+      <c r="BK49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5275420</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45107.9375</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>2.38</v>
+      </c>
+      <c r="U50">
+        <v>2.1</v>
+      </c>
+      <c r="V50">
+        <v>4.75</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>2.63</v>
+      </c>
+      <c r="Y50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>1.36</v>
+      </c>
+      <c r="AA50">
+        <v>7</v>
+      </c>
+      <c r="AB50">
+        <v>1.08</v>
+      </c>
+      <c r="AC50">
+        <v>1.84</v>
+      </c>
+      <c r="AD50">
+        <v>3.4</v>
+      </c>
+      <c r="AE50">
+        <v>3.3</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>1.8</v>
+      </c>
+      <c r="AL50">
+        <v>2</v>
+      </c>
+      <c r="AM50">
+        <v>1.73</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>0.8</v>
+      </c>
+      <c r="AS50">
+        <v>1.88</v>
+      </c>
+      <c r="AT50">
+        <v>0.83</v>
+      </c>
+      <c r="AU50">
+        <v>1.46</v>
+      </c>
+      <c r="AV50">
+        <v>1.2</v>
+      </c>
+      <c r="AW50">
+        <v>2.66</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>5</v>
+      </c>
+      <c r="BG50">
+        <v>4</v>
+      </c>
+      <c r="BH50">
+        <v>7</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>12</v>
+      </c>
+      <c r="BK50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5275421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>7</v>
+      </c>
+      <c r="T51">
+        <v>3.1</v>
+      </c>
+      <c r="U51">
+        <v>2.05</v>
+      </c>
+      <c r="V51">
+        <v>3.4</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>2.63</v>
+      </c>
+      <c r="Y51">
+        <v>3.25</v>
+      </c>
+      <c r="Z51">
+        <v>1.33</v>
+      </c>
+      <c r="AA51">
+        <v>7.5</v>
+      </c>
+      <c r="AB51">
+        <v>1.07</v>
+      </c>
+      <c r="AC51">
+        <v>4.48</v>
+      </c>
+      <c r="AD51">
+        <v>2.41</v>
+      </c>
+      <c r="AE51">
+        <v>2.13</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>2.11</v>
+      </c>
+      <c r="AK51">
+        <v>1.65</v>
+      </c>
+      <c r="AL51">
+        <v>2</v>
+      </c>
+      <c r="AM51">
+        <v>1.73</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>1.67</v>
+      </c>
+      <c r="AR51">
+        <v>0.6</v>
+      </c>
+      <c r="AS51">
+        <v>1.43</v>
+      </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
+      <c r="AU51">
+        <v>1.31</v>
+      </c>
+      <c r="AV51">
+        <v>1.37</v>
+      </c>
+      <c r="AW51">
+        <v>2.68</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>6</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+      <c r="BH51">
+        <v>5</v>
+      </c>
+      <c r="BI51">
+        <v>1</v>
+      </c>
+      <c r="BJ51">
+        <v>11</v>
+      </c>
+      <c r="BK51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5275422</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45109.72916666666</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P52" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>13</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>2.05</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>2.63</v>
+      </c>
+      <c r="Y52">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>1.36</v>
+      </c>
+      <c r="AA52">
+        <v>7</v>
+      </c>
+      <c r="AB52">
+        <v>1.08</v>
+      </c>
+      <c r="AC52">
+        <v>3.3</v>
+      </c>
+      <c r="AD52">
+        <v>3.2</v>
+      </c>
+      <c r="AE52">
+        <v>1.99</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1.84</v>
+      </c>
+      <c r="AK52">
+        <v>1.73</v>
+      </c>
+      <c r="AL52">
+        <v>2</v>
+      </c>
+      <c r="AM52">
+        <v>1.73</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.43</v>
+      </c>
+      <c r="AS52">
+        <v>0.83</v>
+      </c>
+      <c r="AT52">
+        <v>1.63</v>
+      </c>
+      <c r="AU52">
+        <v>1.19</v>
+      </c>
+      <c r="AV52">
+        <v>1.23</v>
+      </c>
+      <c r="AW52">
+        <v>2.42</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>5</v>
+      </c>
+      <c r="BG52">
+        <v>6</v>
+      </c>
+      <c r="BH52">
+        <v>5</v>
+      </c>
+      <c r="BI52">
+        <v>9</v>
+      </c>
+      <c r="BJ52">
+        <v>10</v>
+      </c>
+      <c r="BK52">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,12 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['10', '56']</t>
+  </si>
+  <si>
+    <t>['25', '90+3']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -434,6 +440,15 @@
   </si>
   <si>
     <t>['4', '79']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['36', '44']</t>
+  </si>
+  <si>
+    <t>['25', '33', '47', '54']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1054,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1126,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1230,7 +1245,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1320,7 +1335,7 @@
         <v>1.29</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1508,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>0.71</v>
@@ -1612,7 +1627,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1699,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1803,7 +1818,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1890,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0.71</v>
@@ -2084,7 +2099,7 @@
         <v>1.29</v>
       </c>
       <c r="AT7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2463,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2845,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT11">
         <v>1.63</v>
@@ -2949,7 +2964,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3039,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3140,7 +3155,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3227,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3331,7 +3346,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3418,10 +3433,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3612,7 +3627,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3713,7 +3728,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3800,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT16">
         <v>2.5</v>
@@ -3904,7 +3919,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3991,10 +4006,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4095,7 +4110,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4185,7 +4200,7 @@
         <v>1.29</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4286,7 +4301,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4376,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4477,7 +4492,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4564,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
         <v>0.83</v>
@@ -4668,7 +4683,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4755,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
         <v>1.63</v>
@@ -5050,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5241,7 +5256,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5623,7 +5638,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5710,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5814,7 +5829,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5901,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6092,10 +6107,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6283,10 +6298,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT29">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6387,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6578,7 +6593,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6665,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT31">
         <v>2.5</v>
@@ -6769,7 +6784,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6859,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7047,10 +7062,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7151,7 +7166,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7342,7 +7357,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7429,7 +7444,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>0.83</v>
@@ -7623,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7724,7 +7739,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7915,7 +7930,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8196,7 +8211,7 @@
         <v>1.43</v>
       </c>
       <c r="AT39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8297,7 +8312,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8387,7 +8402,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU40">
         <v>1.5</v>
@@ -8575,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT41">
         <v>0.71</v>
@@ -8766,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1.63</v>
@@ -8957,10 +8972,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9061,7 +9076,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9148,10 +9163,10 @@
         <v>0.83</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT44">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>1.51</v>
@@ -9339,10 +9354,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU45">
         <v>1.54</v>
@@ -9443,7 +9458,7 @@
         <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9825,7 +9840,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10106,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10207,7 +10222,7 @@
         <v>109</v>
       </c>
       <c r="P50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10294,7 +10309,7 @@
         <v>0.8</v>
       </c>
       <c r="AS50">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>0.83</v>
@@ -10398,7 +10413,7 @@
         <v>76</v>
       </c>
       <c r="P51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10488,7 +10503,7 @@
         <v>1.43</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -10589,7 +10604,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10676,7 +10691,7 @@
         <v>1.43</v>
       </c>
       <c r="AS52">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>1.63</v>
@@ -10731,6 +10746,770 @@
       </c>
       <c r="BK52">
         <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5275423</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45114.95833333334</v>
+      </c>
+      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>2.2</v>
+      </c>
+      <c r="V53">
+        <v>2.2</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>2.75</v>
+      </c>
+      <c r="Y53">
+        <v>2.75</v>
+      </c>
+      <c r="Z53">
+        <v>1.4</v>
+      </c>
+      <c r="AA53">
+        <v>7</v>
+      </c>
+      <c r="AB53">
+        <v>1.08</v>
+      </c>
+      <c r="AC53">
+        <v>4.6</v>
+      </c>
+      <c r="AD53">
+        <v>3.6</v>
+      </c>
+      <c r="AE53">
+        <v>1.6</v>
+      </c>
+      <c r="AF53">
+        <v>1.02</v>
+      </c>
+      <c r="AG53">
+        <v>8</v>
+      </c>
+      <c r="AH53">
+        <v>1.5</v>
+      </c>
+      <c r="AI53">
+        <v>2.37</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.9</v>
+      </c>
+      <c r="AL53">
+        <v>2.1</v>
+      </c>
+      <c r="AM53">
+        <v>1.67</v>
+      </c>
+      <c r="AN53">
+        <v>1.93</v>
+      </c>
+      <c r="AO53">
+        <v>1.29</v>
+      </c>
+      <c r="AP53">
+        <v>1.2</v>
+      </c>
+      <c r="AQ53">
+        <v>0.83</v>
+      </c>
+      <c r="AR53">
+        <v>0.86</v>
+      </c>
+      <c r="AS53">
+        <v>1.14</v>
+      </c>
+      <c r="AT53">
+        <v>0.75</v>
+      </c>
+      <c r="AU53">
+        <v>1.2</v>
+      </c>
+      <c r="AV53">
+        <v>1.44</v>
+      </c>
+      <c r="AW53">
+        <v>2.64</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>4</v>
+      </c>
+      <c r="BG53">
+        <v>4</v>
+      </c>
+      <c r="BH53">
+        <v>6</v>
+      </c>
+      <c r="BI53">
+        <v>5</v>
+      </c>
+      <c r="BJ53">
+        <v>10</v>
+      </c>
+      <c r="BK53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5275424</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45115.91666666666</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>9</v>
+      </c>
+      <c r="T54">
+        <v>2.3</v>
+      </c>
+      <c r="U54">
+        <v>2.2</v>
+      </c>
+      <c r="V54">
+        <v>4.75</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54">
+        <v>2.75</v>
+      </c>
+      <c r="Y54">
+        <v>2.75</v>
+      </c>
+      <c r="Z54">
+        <v>1.4</v>
+      </c>
+      <c r="AA54">
+        <v>6.5</v>
+      </c>
+      <c r="AB54">
+        <v>1.1</v>
+      </c>
+      <c r="AC54">
+        <v>1.64</v>
+      </c>
+      <c r="AD54">
+        <v>3.23</v>
+      </c>
+      <c r="AE54">
+        <v>3.96</v>
+      </c>
+      <c r="AF54">
+        <v>1.03</v>
+      </c>
+      <c r="AG54">
+        <v>13.75</v>
+      </c>
+      <c r="AH54">
+        <v>1.25</v>
+      </c>
+      <c r="AI54">
+        <v>3.73</v>
+      </c>
+      <c r="AJ54">
+        <v>1.71</v>
+      </c>
+      <c r="AK54">
+        <v>1.8</v>
+      </c>
+      <c r="AL54">
+        <v>1.91</v>
+      </c>
+      <c r="AM54">
+        <v>1.8</v>
+      </c>
+      <c r="AN54">
+        <v>1.2</v>
+      </c>
+      <c r="AO54">
+        <v>1.25</v>
+      </c>
+      <c r="AP54">
+        <v>2.05</v>
+      </c>
+      <c r="AQ54">
+        <v>1.88</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="AS54">
+        <v>1.67</v>
+      </c>
+      <c r="AT54">
+        <v>1.29</v>
+      </c>
+      <c r="AU54">
+        <v>1.47</v>
+      </c>
+      <c r="AV54">
+        <v>1.29</v>
+      </c>
+      <c r="AW54">
+        <v>2.76</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>5</v>
+      </c>
+      <c r="BG54">
+        <v>7</v>
+      </c>
+      <c r="BH54">
+        <v>6</v>
+      </c>
+      <c r="BI54">
+        <v>4</v>
+      </c>
+      <c r="BJ54">
+        <v>11</v>
+      </c>
+      <c r="BK54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5275425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45116.66666666666</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>11</v>
+      </c>
+      <c r="S55">
+        <v>13</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>2.05</v>
+      </c>
+      <c r="V55">
+        <v>3.5</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>2.63</v>
+      </c>
+      <c r="Y55">
+        <v>3.25</v>
+      </c>
+      <c r="Z55">
+        <v>1.33</v>
+      </c>
+      <c r="AA55">
+        <v>7.5</v>
+      </c>
+      <c r="AB55">
+        <v>1.07</v>
+      </c>
+      <c r="AC55">
+        <v>2.04</v>
+      </c>
+      <c r="AD55">
+        <v>3.2</v>
+      </c>
+      <c r="AE55">
+        <v>2.97</v>
+      </c>
+      <c r="AF55">
+        <v>1.05</v>
+      </c>
+      <c r="AG55">
+        <v>9.75</v>
+      </c>
+      <c r="AH55">
+        <v>1.33</v>
+      </c>
+      <c r="AI55">
+        <v>3</v>
+      </c>
+      <c r="AJ55">
+        <v>1.9</v>
+      </c>
+      <c r="AK55">
+        <v>1.9</v>
+      </c>
+      <c r="AL55">
+        <v>2</v>
+      </c>
+      <c r="AM55">
+        <v>1.73</v>
+      </c>
+      <c r="AN55">
+        <v>1.35</v>
+      </c>
+      <c r="AO55">
+        <v>1.31</v>
+      </c>
+      <c r="AP55">
+        <v>1.6</v>
+      </c>
+      <c r="AQ55">
+        <v>1.17</v>
+      </c>
+      <c r="AR55">
+        <v>0.83</v>
+      </c>
+      <c r="AS55">
+        <v>1.43</v>
+      </c>
+      <c r="AT55">
+        <v>0.71</v>
+      </c>
+      <c r="AU55">
+        <v>1.57</v>
+      </c>
+      <c r="AV55">
+        <v>1.37</v>
+      </c>
+      <c r="AW55">
+        <v>2.94</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>1.85</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>11</v>
+      </c>
+      <c r="BG55">
+        <v>2</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>6</v>
+      </c>
+      <c r="BJ55">
+        <v>15</v>
+      </c>
+      <c r="BK55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5275426</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45116.85416666666</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>3.8</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>2.5</v>
+      </c>
+      <c r="W56">
+        <v>1.39</v>
+      </c>
+      <c r="X56">
+        <v>2.79</v>
+      </c>
+      <c r="Y56">
+        <v>2.82</v>
+      </c>
+      <c r="Z56">
+        <v>1.38</v>
+      </c>
+      <c r="AA56">
+        <v>6.7</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>2.72</v>
+      </c>
+      <c r="AD56">
+        <v>3.2</v>
+      </c>
+      <c r="AE56">
+        <v>2.18</v>
+      </c>
+      <c r="AF56">
+        <v>1.01</v>
+      </c>
+      <c r="AG56">
+        <v>9.25</v>
+      </c>
+      <c r="AH56">
+        <v>1.25</v>
+      </c>
+      <c r="AI56">
+        <v>3.3</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.85</v>
+      </c>
+      <c r="AL56">
+        <v>1.66</v>
+      </c>
+      <c r="AM56">
+        <v>1.95</v>
+      </c>
+      <c r="AN56">
+        <v>1.66</v>
+      </c>
+      <c r="AO56">
+        <v>1.25</v>
+      </c>
+      <c r="AP56">
+        <v>1.23</v>
+      </c>
+      <c r="AQ56">
+        <v>1.17</v>
+      </c>
+      <c r="AR56">
+        <v>1.43</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>1.63</v>
+      </c>
+      <c r="AU56">
+        <v>1.48</v>
+      </c>
+      <c r="AV56">
+        <v>1.64</v>
+      </c>
+      <c r="AW56">
+        <v>3.12</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>3</v>
+      </c>
+      <c r="BG56">
+        <v>8</v>
+      </c>
+      <c r="BH56">
+        <v>8</v>
+      </c>
+      <c r="BI56">
+        <v>8</v>
+      </c>
+      <c r="BJ56">
+        <v>11</v>
+      </c>
+      <c r="BK56">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
